--- a/spiders/COVID/COVID-19-China.xlsx
+++ b/spiders/COVID/COVID-19-China.xlsx
@@ -17056,7 +17056,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021.05.30 17:00</t>
+          <t>2021.05.30 18:13</t>
         </is>
       </c>
     </row>
